--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441868.0713925908</v>
+        <v>443739.2851245829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2850463.98007657</v>
+        <v>2850463.980076569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19057342.57489702</v>
+        <v>19057342.57489699</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5159736.553920192</v>
+        <v>5159736.553920193</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>28.88091821707974</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>38.87161743162455</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.7904504476822409</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822409</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
+        <v>38.87161743162454</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>44.13217237922859</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9316902659215</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38.87161743162454</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>44.13217237922859</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>38.12502610536668</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="F9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>44.13217237922859</v>
@@ -1315,7 +1315,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="G11" t="n">
-        <v>43.59866982304789</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>43.59866982304786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>43.59866982304786</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>43.59866982304789</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
     </row>
     <row r="13">
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.59866982304789</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>43.59866982304786</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>43.59866982304788</v>
       </c>
       <c r="G14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="H14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="I14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>43.59866982304789</v>
+        <v>43.59866982304788</v>
       </c>
       <c r="G15" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.49894394079007</v>
+        <v>34.77020590194672</v>
       </c>
       <c r="J16" t="n">
-        <v>43.59866982304789</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.828463921101152</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>54.46500446236197</v>
+      </c>
+      <c r="U17" t="n">
         <v>61.83583612893051</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>61.83583612893051</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>61.83583612893051</v>
-      </c>
-      <c r="U17" t="n">
-        <v>54.46500446236199</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>54.46500446236197</v>
-      </c>
-      <c r="G18" t="n">
-        <v>61.83583612893051</v>
       </c>
       <c r="H18" t="n">
         <v>61.83583612893051</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.73561065971676</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="T19" t="n">
         <v>61.83583612893051</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>61.83583612893051</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.83583612893051</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>26.73561065971674</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>246.2378343497176</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0818325603256</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0005045199096</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>200.5328098757684</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>133.6681717024292</v>
       </c>
       <c r="S20" t="n">
         <v>203.1429428488988</v>
       </c>
       <c r="T20" t="n">
-        <v>221.9668480372972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3250200986653</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>153.1242086670214</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>43.77839128384898</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>199.6085157269516</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>310.0005045199096</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>21.72342428247083</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3250200986653</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>310.0005045199096</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>310.0005045199096</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>273.0484443811362</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>59.00315214737326</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.2055230863071</v>
       </c>
       <c r="H24" t="n">
         <v>110.9027119674543</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>84.64552099311295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>169.1199916490723</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>199.6085157269516</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>68.15050540925817</v>
       </c>
     </row>
     <row r="25">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>32.41113886457072</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>212.2431190465083</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>139.3802726787071</v>
+      </c>
+      <c r="E26" t="n">
         <v>310.0005045199096</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>82.9464707336649</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>133.6681717024292</v>
       </c>
       <c r="S26" t="n">
-        <v>203.1429428488988</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.9668480372972</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3250200986653</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>96.06945424214837</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.2055230863071</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.9027119674543</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>84.64552099311295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>91.59009664103488</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>169.1199916490723</v>
       </c>
       <c r="T27" t="n">
-        <v>199.6085157269516</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>65.425328476595</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.27174586486947</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>151.9713731816387</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.2431190465082</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,14 +2789,14 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>310.0005045199096</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.7570807650834</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.9668480372972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3250200986653</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>273.0484443811363</v>
       </c>
       <c r="X29" t="n">
         <v>310.0005045199096</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>65.72286158433388</v>
+        <v>137.2055230863071</v>
       </c>
       <c r="H30" t="n">
-        <v>110.9027119674543</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>84.64552099311295</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>32.61005160234737</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>169.1199916490723</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.6085157269516</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>40.15155270979657</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>144.7425451116447</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>32.30348009017766</v>
       </c>
       <c r="H33" t="n">
-        <v>110.9027119674543</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>84.64552099311295</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>91.59009664103488</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>169.1199916490723</v>
       </c>
       <c r="T33" t="n">
         <v>199.6085157269516</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.47461695819327</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.768502088315</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.2431190465083</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>135.0108807751089</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2055230863071</v>
+        <v>66.6147769820904</v>
       </c>
       <c r="H36" t="n">
         <v>110.9027119674543</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>66.82207102357677</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8752897599043</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>44.36782928660397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>304.6337329583481</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>201.1540469215478</v>
       </c>
       <c r="E38" t="n">
-        <v>67.48587521911854</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>133.6681717024292</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>203.1429428488988</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.9737059909176</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>110.3621390546819</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3597,7 +3597,7 @@
         <v>137.2055230863071</v>
       </c>
       <c r="H39" t="n">
-        <v>110.9027119674543</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>91.59009664103488</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8752897599043</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>44.36782928660367</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>172.0915663367117</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>40.15155270979634</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>257.4550573503988</v>
-      </c>
-      <c r="E41" t="n">
-        <v>292.2968407702077</v>
       </c>
       <c r="F41" t="n">
         <v>292.2968407702077</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>292.2968407702077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.30708982349026</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>169.1199916490723</v>
+        <v>138.1177023576633</v>
       </c>
       <c r="T42" t="n">
         <v>199.6085157269516</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>38.87161743162458</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>44.13217237922862</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>44.13217237922862</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>44.13217237922862</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>38.87161743162458</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.87161743162457</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>44.13217237922862</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.13217237922862</v>
+        <v>38.87161743162458</v>
       </c>
     </row>
     <row r="46">
@@ -4144,64 +4144,64 @@
         <v>44.13217237922862</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>38.87161743162457</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>44.13217237922862</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922862</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,46 +4331,46 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
         <v>3.530573790338288</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
         <v>3.530573790338288</v>
@@ -4413,16 +4413,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="N3" t="n">
         <v>45.45613755060546</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>89.14698820604177</v>
-      </c>
-      <c r="N3" t="n">
-        <v>132.8378388614781</v>
-      </c>
-      <c r="O3" t="n">
-        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
         <v>132.8378388614781</v>
@@ -4431,28 +4431,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V3" t="n">
-        <v>137.2644294849704</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W3" t="n">
-        <v>137.2644294849704</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="G4" t="n">
-        <v>41.99639902664363</v>
+        <v>175.7302547212757</v>
       </c>
       <c r="H4" t="n">
-        <v>41.99639902664363</v>
+        <v>131.152302823065</v>
       </c>
       <c r="I4" t="n">
-        <v>41.99639902664363</v>
+        <v>86.57435092485433</v>
       </c>
       <c r="J4" t="n">
         <v>41.99639902664363</v>
@@ -4504,34 +4504,34 @@
         <v>176.5286895169144</v>
       </c>
       <c r="P4" t="n">
-        <v>175.7302547212757</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q4" t="n">
-        <v>131.152302823065</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R4" t="n">
-        <v>86.57435092485433</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.99639902664363</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C5" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
         <v>3.530573790338288</v>
@@ -4568,16 +4568,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
         <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
         <v>132.8378388614781</v>
@@ -4607,10 +4607,10 @@
         <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
@@ -4674,19 +4674,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
         <v>87.37278572049297</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>46.15803044872652</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I7" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
         <v>3.530573790338288</v>
@@ -4741,34 +4741,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C8" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D8" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E8" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F8" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
         <v>3.530573790338288</v>
@@ -4805,7 +4805,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
         <v>45.45613755060546</v>
@@ -4814,7 +4814,7 @@
         <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
         <v>132.8378388614781</v>
@@ -4844,10 +4844,10 @@
         <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="Y8" t="n">
         <v>131.9507376187037</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="E9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="F9" t="n">
         <v>138.0185621377561</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>93.44061023954541</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>48.8626583413347</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48.8626583413347</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
         <v>4.284706443124001</v>
@@ -4887,16 +4887,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
         <v>176.5286895169144</v>
@@ -4951,16 +4951,16 @@
         <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>137.2644294849704</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>92.68647758675968</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I10" t="n">
-        <v>48.10852568854899</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K10" t="n">
         <v>3.530573790338288</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="C11" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="D11" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="E11" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="F11" t="n">
-        <v>97.99790921610963</v>
+        <v>147.9968424896349</v>
       </c>
       <c r="G11" t="n">
-        <v>53.95884878878853</v>
+        <v>97.99790921610959</v>
       </c>
       <c r="H11" t="n">
-        <v>3.959915515263206</v>
+        <v>47.99897594258428</v>
       </c>
       <c r="I11" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="J11" t="n">
-        <v>13.80101966065321</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="K11" t="n">
-        <v>62.80497416203538</v>
+        <v>52.96387001664536</v>
       </c>
       <c r="L11" t="n">
-        <v>111.8089286634175</v>
+        <v>101.9678245180275</v>
       </c>
       <c r="M11" t="n">
-        <v>111.8089286634175</v>
+        <v>131.309736500829</v>
       </c>
       <c r="N11" t="n">
-        <v>111.8089286634175</v>
+        <v>131.309736500829</v>
       </c>
       <c r="O11" t="n">
-        <v>160.8128831647997</v>
+        <v>180.3136910022112</v>
       </c>
       <c r="P11" t="n">
         <v>180.3136910022112</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="R11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="S11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="T11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="U11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="V11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="W11" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="X11" t="n">
-        <v>147.996842489635</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631602</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>197.9957757631603</v>
+        <v>97.99790921610959</v>
       </c>
       <c r="C12" t="n">
-        <v>147.996842489635</v>
+        <v>47.99897594258428</v>
       </c>
       <c r="D12" t="n">
-        <v>147.996842489635</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="E12" t="n">
-        <v>147.996842489635</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="F12" t="n">
-        <v>147.996842489635</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="G12" t="n">
-        <v>103.9577820623139</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="H12" t="n">
-        <v>53.95884878878853</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="I12" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="J12" t="n">
         <v>16.12783004294171</v>
       </c>
       <c r="K12" t="n">
-        <v>65.13178454432388</v>
+        <v>16.12783004294171</v>
       </c>
       <c r="L12" t="n">
-        <v>99.98786676039595</v>
+        <v>16.12783004294171</v>
       </c>
       <c r="M12" t="n">
-        <v>99.98786676039595</v>
+        <v>65.13178454432386</v>
       </c>
       <c r="N12" t="n">
-        <v>99.98786676039595</v>
+        <v>114.135739045706</v>
       </c>
       <c r="O12" t="n">
-        <v>99.98786676039595</v>
+        <v>148.9918212617781</v>
       </c>
       <c r="P12" t="n">
         <v>148.9918212617781</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="R12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="S12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="U12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="V12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="W12" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="X12" t="n">
-        <v>197.9957757631603</v>
+        <v>147.9968424896349</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.9957757631603</v>
+        <v>97.99790921610959</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="C13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="D13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="E13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="F13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="G13" t="n">
-        <v>147.996842489635</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.99790921610963</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="I13" t="n">
-        <v>47.99897594258431</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="J13" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="K13" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="L13" t="n">
         <v>48.30192977581279</v>
       </c>
       <c r="M13" t="n">
-        <v>97.30588427719499</v>
+        <v>97.30588427719495</v>
       </c>
       <c r="N13" t="n">
-        <v>146.3098387785772</v>
+        <v>146.3098387785771</v>
       </c>
       <c r="O13" t="n">
         <v>186.837792318399</v>
       </c>
       <c r="P13" t="n">
-        <v>197.9957757631603</v>
+        <v>197.9957757631602</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.9957757631603</v>
+        <v>147.9968424896349</v>
       </c>
       <c r="R13" t="n">
-        <v>197.9957757631603</v>
+        <v>97.99790921610959</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9957757631603</v>
+        <v>47.99897594258428</v>
       </c>
       <c r="T13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="U13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="V13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="W13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="X13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.9957757631603</v>
+        <v>3.959915515263205</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>153.9567153358392</v>
       </c>
       <c r="G14" t="n">
-        <v>103.9577820623139</v>
+        <v>103.9577820623138</v>
       </c>
       <c r="H14" t="n">
-        <v>53.95884878878853</v>
+        <v>53.95884878878852</v>
       </c>
       <c r="I14" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="J14" t="n">
-        <v>13.80101966065321</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="K14" t="n">
-        <v>62.80497416203538</v>
+        <v>52.96387001664537</v>
       </c>
       <c r="L14" t="n">
-        <v>111.8089286634175</v>
+        <v>101.9678245180275</v>
       </c>
       <c r="M14" t="n">
-        <v>111.8089286634175</v>
+        <v>131.309736500829</v>
       </c>
       <c r="N14" t="n">
-        <v>111.8089286634175</v>
+        <v>131.309736500829</v>
       </c>
       <c r="O14" t="n">
         <v>131.309736500829</v>
@@ -5334,43 +5334,43 @@
         <v>197.9957757631603</v>
       </c>
       <c r="C15" t="n">
-        <v>147.996842489635</v>
+        <v>197.9957757631603</v>
       </c>
       <c r="D15" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631603</v>
       </c>
       <c r="E15" t="n">
-        <v>97.99790921610963</v>
+        <v>197.9957757631603</v>
       </c>
       <c r="F15" t="n">
-        <v>53.95884878878853</v>
+        <v>153.9567153358392</v>
       </c>
       <c r="G15" t="n">
-        <v>3.959915515263206</v>
+        <v>103.9577820623138</v>
       </c>
       <c r="H15" t="n">
-        <v>3.959915515263206</v>
+        <v>53.95884878878852</v>
       </c>
       <c r="I15" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="J15" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="K15" t="n">
-        <v>50.98391225901378</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="L15" t="n">
-        <v>99.98786676039595</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="M15" t="n">
-        <v>99.98786676039595</v>
+        <v>52.96387001664537</v>
       </c>
       <c r="N15" t="n">
-        <v>99.98786676039595</v>
+        <v>52.96387001664537</v>
       </c>
       <c r="O15" t="n">
-        <v>99.98786676039595</v>
+        <v>101.9678245180275</v>
       </c>
       <c r="P15" t="n">
         <v>148.9918212617781</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="C16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="D16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="E16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="F16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="G16" t="n">
-        <v>147.996842489635</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="H16" t="n">
-        <v>97.99790921610963</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="I16" t="n">
-        <v>47.99897594258431</v>
+        <v>62.87648911313312</v>
       </c>
       <c r="J16" t="n">
-        <v>3.959915515263206</v>
+        <v>12.8775558396078</v>
       </c>
       <c r="K16" t="n">
-        <v>3.959915515263206</v>
+        <v>3.959915515263205</v>
       </c>
       <c r="L16" t="n">
-        <v>48.30192977581281</v>
+        <v>48.3019297758128</v>
       </c>
       <c r="M16" t="n">
-        <v>97.30588427719498</v>
+        <v>97.30588427719496</v>
       </c>
       <c r="N16" t="n">
-        <v>146.3098387785772</v>
+        <v>146.3098387785771</v>
       </c>
       <c r="O16" t="n">
         <v>186.837792318399</v>
@@ -5455,31 +5455,31 @@
         <v>197.9957757631603</v>
       </c>
       <c r="Q16" t="n">
-        <v>197.9957757631603</v>
+        <v>147.9968424896349</v>
       </c>
       <c r="R16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="T16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="U16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="V16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="W16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="X16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.9957757631603</v>
+        <v>97.9979092161096</v>
       </c>
     </row>
     <row r="17">
@@ -5516,40 +5516,40 @@
         <v>14.78797103570444</v>
       </c>
       <c r="K17" t="n">
-        <v>76.00544880334564</v>
+        <v>14.78797103570444</v>
       </c>
       <c r="L17" t="n">
         <v>76.00544880334564</v>
       </c>
       <c r="M17" t="n">
-        <v>76.00544880334564</v>
+        <v>137.2229265709869</v>
       </c>
       <c r="N17" t="n">
-        <v>137.2229265709869</v>
+        <v>198.4404043386281</v>
       </c>
       <c r="O17" t="n">
-        <v>198.4404043386281</v>
+        <v>247.343344515722</v>
       </c>
       <c r="P17" t="n">
-        <v>229.661259754773</v>
+        <v>247.343344515722</v>
       </c>
       <c r="Q17" t="n">
         <v>247.343344515722</v>
       </c>
       <c r="R17" t="n">
-        <v>184.8829039814488</v>
+        <v>247.343344515722</v>
       </c>
       <c r="S17" t="n">
-        <v>122.4224634471756</v>
+        <v>247.343344515722</v>
       </c>
       <c r="T17" t="n">
-        <v>59.96202291290231</v>
+        <v>192.3281884931342</v>
       </c>
       <c r="U17" t="n">
-        <v>4.946866890314441</v>
+        <v>129.8677479588609</v>
       </c>
       <c r="V17" t="n">
-        <v>4.946866890314441</v>
+        <v>67.40730742458769</v>
       </c>
       <c r="W17" t="n">
         <v>4.946866890314441</v>
@@ -5574,13 +5574,13 @@
         <v>247.343344515722</v>
       </c>
       <c r="D18" t="n">
-        <v>247.343344515722</v>
+        <v>184.8829039814488</v>
       </c>
       <c r="E18" t="n">
-        <v>247.343344515722</v>
+        <v>184.8829039814488</v>
       </c>
       <c r="F18" t="n">
-        <v>192.3281884931342</v>
+        <v>184.8829039814488</v>
       </c>
       <c r="G18" t="n">
         <v>129.8677479588609</v>
@@ -5598,19 +5598,19 @@
         <v>4.946866890314441</v>
       </c>
       <c r="L18" t="n">
-        <v>4.946866890314441</v>
+        <v>66.16434465795565</v>
       </c>
       <c r="M18" t="n">
-        <v>63.6909112127984</v>
+        <v>127.3818224255969</v>
       </c>
       <c r="N18" t="n">
-        <v>124.9083889804396</v>
+        <v>186.1258667480808</v>
       </c>
       <c r="O18" t="n">
-        <v>124.9083889804396</v>
+        <v>186.1258667480808</v>
       </c>
       <c r="P18" t="n">
-        <v>186.1258667480808</v>
+        <v>247.343344515722</v>
       </c>
       <c r="Q18" t="n">
         <v>247.343344515722</v>
@@ -5695,25 +5695,25 @@
         <v>219.3338558261814</v>
       </c>
       <c r="R19" t="n">
-        <v>192.3281884931342</v>
+        <v>156.8734152919081</v>
       </c>
       <c r="S19" t="n">
-        <v>192.3281884931342</v>
+        <v>94.4129747576349</v>
       </c>
       <c r="T19" t="n">
-        <v>129.8677479588609</v>
+        <v>31.95253422336165</v>
       </c>
       <c r="U19" t="n">
-        <v>129.8677479588609</v>
+        <v>31.95253422336165</v>
       </c>
       <c r="V19" t="n">
-        <v>67.40730742458769</v>
+        <v>31.95253422336165</v>
       </c>
       <c r="W19" t="n">
-        <v>4.946866890314441</v>
+        <v>31.95253422336165</v>
       </c>
       <c r="X19" t="n">
-        <v>4.946866890314441</v>
+        <v>31.95253422336165</v>
       </c>
       <c r="Y19" t="n">
         <v>4.946866890314441</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>556.7345322363439</v>
+        <v>273.5251255633278</v>
       </c>
       <c r="C20" t="n">
-        <v>556.7345322363439</v>
+        <v>273.5251255633278</v>
       </c>
       <c r="D20" t="n">
-        <v>556.7345322363439</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="E20" t="n">
-        <v>556.7345322363439</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="F20" t="n">
-        <v>556.7345322363439</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4902569228836</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="H20" t="n">
-        <v>227.3584341755003</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="I20" t="n">
         <v>24.80004036159276</v>
       </c>
       <c r="J20" t="n">
-        <v>34.64114450698276</v>
+        <v>34.64114450698277</v>
       </c>
       <c r="K20" t="n">
-        <v>170.1352128255227</v>
+        <v>170.1352128255226</v>
       </c>
       <c r="L20" t="n">
         <v>390.5042133219869</v>
@@ -5774,28 +5774,28 @@
         <v>1240.002018079638</v>
       </c>
       <c r="R20" t="n">
-        <v>1240.002018079638</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="S20" t="n">
-        <v>1034.807126313074</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="T20" t="n">
-        <v>810.5981889016624</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="U20" t="n">
-        <v>556.7345322363439</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="V20" t="n">
-        <v>556.7345322363439</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="W20" t="n">
-        <v>556.7345322363439</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="X20" t="n">
-        <v>556.7345322363439</v>
+        <v>899.7887710580947</v>
       </c>
       <c r="Y20" t="n">
-        <v>556.7345322363439</v>
+        <v>586.6569483107112</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>228.2580926234614</v>
+        <v>502.8583971494472</v>
       </c>
       <c r="C21" t="n">
-        <v>228.2580926234614</v>
+        <v>328.4053678683202</v>
       </c>
       <c r="D21" t="n">
-        <v>228.2580926234614</v>
+        <v>179.470958207069</v>
       </c>
       <c r="E21" t="n">
-        <v>69.02063761800588</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="F21" t="n">
-        <v>69.02063761800588</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="G21" t="n">
         <v>24.80004036159276</v>
@@ -5835,19 +5835,19 @@
         <v>184.3857020087951</v>
       </c>
       <c r="L21" t="n">
-        <v>184.3857020087951</v>
+        <v>258.1103936340307</v>
       </c>
       <c r="M21" t="n">
-        <v>491.2862014835055</v>
+        <v>565.0108931087411</v>
       </c>
       <c r="N21" t="n">
-        <v>798.186700958216</v>
+        <v>871.9113925834515</v>
       </c>
       <c r="O21" t="n">
-        <v>1079.444093300464</v>
+        <v>1153.168784925699</v>
       </c>
       <c r="P21" t="n">
-        <v>1240.002018079638</v>
+        <v>1153.168784925699</v>
       </c>
       <c r="Q21" t="n">
         <v>1240.002018079638</v>
@@ -5862,19 +5862,19 @@
         <v>945.8620055867227</v>
       </c>
       <c r="U21" t="n">
-        <v>717.6475575834057</v>
+        <v>945.8620055867227</v>
       </c>
       <c r="V21" t="n">
-        <v>482.495449351663</v>
+        <v>710.7098973549801</v>
       </c>
       <c r="W21" t="n">
-        <v>228.2580926234614</v>
+        <v>710.7098973549801</v>
       </c>
       <c r="X21" t="n">
-        <v>228.2580926234614</v>
+        <v>502.8583971494472</v>
       </c>
       <c r="Y21" t="n">
-        <v>228.2580926234614</v>
+        <v>502.8583971494472</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>651.0636858563596</v>
+      </c>
+      <c r="C23" t="n">
+        <v>651.0636858563596</v>
+      </c>
+      <c r="D23" t="n">
+        <v>651.0636858563596</v>
+      </c>
+      <c r="E23" t="n">
+        <v>651.0636858563596</v>
+      </c>
+      <c r="F23" t="n">
         <v>337.9318631089762</v>
-      </c>
-      <c r="C23" t="n">
-        <v>337.9318631089762</v>
-      </c>
-      <c r="D23" t="n">
-        <v>337.9318631089762</v>
-      </c>
-      <c r="E23" t="n">
-        <v>24.80004036159276</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24.80004036159276</v>
       </c>
       <c r="G23" t="n">
         <v>24.80004036159276</v>
@@ -6017,22 +6017,22 @@
         <v>1240.002018079638</v>
       </c>
       <c r="T23" t="n">
-        <v>1218.059165269062</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="U23" t="n">
+        <v>1240.002018079638</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1240.002018079638</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1240.002018079638</v>
+      </c>
+      <c r="X23" t="n">
         <v>964.1955086037431</v>
       </c>
-      <c r="V23" t="n">
-        <v>651.0636858563596</v>
-      </c>
-      <c r="W23" t="n">
-        <v>337.9318631089762</v>
-      </c>
-      <c r="X23" t="n">
-        <v>337.9318631089762</v>
-      </c>
       <c r="Y23" t="n">
-        <v>337.9318631089762</v>
+        <v>964.1955086037431</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>196.422125326065</v>
+        <v>507.4495034325606</v>
       </c>
       <c r="C24" t="n">
-        <v>196.422125326065</v>
+        <v>507.4495034325606</v>
       </c>
       <c r="D24" t="n">
-        <v>196.422125326065</v>
+        <v>507.4495034325606</v>
       </c>
       <c r="E24" t="n">
-        <v>136.8229817428597</v>
+        <v>507.4495034325606</v>
       </c>
       <c r="F24" t="n">
-        <v>136.8229817428597</v>
+        <v>360.9149454594456</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8229817428597</v>
+        <v>222.3235079985294</v>
       </c>
       <c r="H24" t="n">
-        <v>24.80004036159276</v>
+        <v>110.3005666172624</v>
       </c>
       <c r="I24" t="n">
         <v>24.80004036159276</v>
@@ -6069,13 +6069,13 @@
         <v>24.80004036159276</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2177874811165</v>
+        <v>157.84448359429</v>
       </c>
       <c r="L24" t="n">
-        <v>431.8435372500764</v>
+        <v>417.4702333632499</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7440367247868</v>
+        <v>724.3707328379603</v>
       </c>
       <c r="N24" t="n">
         <v>1031.271232312671</v>
@@ -6093,25 +6093,25 @@
         <v>1240.002018079638</v>
       </c>
       <c r="S24" t="n">
-        <v>1069.173743686636</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="T24" t="n">
-        <v>867.5489803260787</v>
+        <v>1038.377254719081</v>
       </c>
       <c r="U24" t="n">
-        <v>639.3345323227617</v>
+        <v>1038.377254719081</v>
       </c>
       <c r="V24" t="n">
-        <v>404.182424091019</v>
+        <v>1038.377254719081</v>
       </c>
       <c r="W24" t="n">
-        <v>404.182424091019</v>
+        <v>784.1398979908795</v>
       </c>
       <c r="X24" t="n">
-        <v>404.182424091019</v>
+        <v>576.2883977853467</v>
       </c>
       <c r="Y24" t="n">
-        <v>196.422125326065</v>
+        <v>507.4495034325606</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1058.353553249399</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="C25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="D25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="E25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="F25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="G25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="H25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="I25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="J25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="K25" t="n">
-        <v>1025.615029143772</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="L25" t="n">
-        <v>1069.957043404321</v>
+        <v>69.14205462214237</v>
       </c>
       <c r="M25" t="n">
-        <v>1127.098603327414</v>
+        <v>126.2836145452354</v>
       </c>
       <c r="N25" t="n">
-        <v>1188.316081095055</v>
+        <v>187.5010923128766</v>
       </c>
       <c r="O25" t="n">
-        <v>1228.844034634877</v>
+        <v>228.0290458526985</v>
       </c>
       <c r="P25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="Q25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="R25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="S25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="T25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="V25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="W25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="X25" t="n">
-        <v>1240.002018079638</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="Y25" t="n">
-        <v>1240.002018079638</v>
+        <v>24.80004036159276</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>421.716176981365</v>
+        <v>791.8518400772759</v>
       </c>
       <c r="C26" t="n">
-        <v>421.716176981365</v>
+        <v>791.8518400772759</v>
       </c>
       <c r="D26" t="n">
-        <v>108.5843542339816</v>
+        <v>651.0636858563597</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5843542339816</v>
+        <v>337.9318631089762</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5843542339816</v>
+        <v>24.80004036159277</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5843542339816</v>
+        <v>24.80004036159277</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5843542339816</v>
+        <v>24.80004036159277</v>
       </c>
       <c r="I26" t="n">
         <v>24.80004036159277</v>
@@ -6251,25 +6251,25 @@
         <v>1104.983662824659</v>
       </c>
       <c r="S26" t="n">
-        <v>899.7887710580949</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="T26" t="n">
-        <v>675.5798336466836</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="U26" t="n">
-        <v>421.716176981365</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="V26" t="n">
-        <v>421.716176981365</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="W26" t="n">
-        <v>421.716176981365</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="X26" t="n">
-        <v>421.716176981365</v>
+        <v>1104.983662824659</v>
       </c>
       <c r="Y26" t="n">
-        <v>421.716176981365</v>
+        <v>791.8518400772759</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>332.9719050282995</v>
+        <v>457.9547982292925</v>
       </c>
       <c r="C27" t="n">
-        <v>332.9719050282995</v>
+        <v>457.9547982292925</v>
       </c>
       <c r="D27" t="n">
-        <v>184.0374953670483</v>
+        <v>457.9547982292925</v>
       </c>
       <c r="E27" t="n">
-        <v>24.80004036159277</v>
+        <v>457.9547982292925</v>
       </c>
       <c r="F27" t="n">
-        <v>24.80004036159277</v>
+        <v>360.9149454594457</v>
       </c>
       <c r="G27" t="n">
-        <v>24.80004036159277</v>
+        <v>222.3235079985294</v>
       </c>
       <c r="H27" t="n">
-        <v>24.80004036159277</v>
+        <v>110.3005666172624</v>
       </c>
       <c r="I27" t="n">
         <v>24.80004036159277</v>
@@ -6315,7 +6315,7 @@
         <v>750.9119512524654</v>
       </c>
       <c r="N27" t="n">
-        <v>958.7446257373906</v>
+        <v>1057.812450727176</v>
       </c>
       <c r="O27" t="n">
         <v>1240.002018079638</v>
@@ -6327,28 +6327,28 @@
         <v>1240.002018079638</v>
       </c>
       <c r="R27" t="n">
-        <v>1147.48676894728</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="S27" t="n">
-        <v>976.6584945542776</v>
+        <v>1069.173743686636</v>
       </c>
       <c r="T27" t="n">
-        <v>775.0337311937204</v>
+        <v>1069.173743686636</v>
       </c>
       <c r="U27" t="n">
-        <v>708.9475408133214</v>
+        <v>1069.173743686636</v>
       </c>
       <c r="V27" t="n">
-        <v>708.9475408133214</v>
+        <v>834.0216354548934</v>
       </c>
       <c r="W27" t="n">
-        <v>708.9475408133214</v>
+        <v>834.0216354548934</v>
       </c>
       <c r="X27" t="n">
-        <v>708.9475408133214</v>
+        <v>626.1701352493606</v>
       </c>
       <c r="Y27" t="n">
-        <v>501.1872420483676</v>
+        <v>626.1701352493606</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="C28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="D28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="E28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="F28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="G28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="H28" t="n">
-        <v>1179.121466700982</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="I28" t="n">
         <v>1025.615029143772</v>
@@ -6412,22 +6412,22 @@
         <v>1240.002018079638</v>
       </c>
       <c r="T28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="U28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="V28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="W28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="X28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
       <c r="Y28" t="n">
-        <v>1240.002018079638</v>
+        <v>1025.615029143772</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.80004036159277</v>
+        <v>651.0636858563597</v>
       </c>
       <c r="C29" t="n">
-        <v>24.80004036159277</v>
+        <v>651.0636858563597</v>
       </c>
       <c r="D29" t="n">
-        <v>24.80004036159277</v>
+        <v>337.9318631089762</v>
       </c>
       <c r="E29" t="n">
-        <v>24.80004036159277</v>
+        <v>337.9318631089762</v>
       </c>
       <c r="F29" t="n">
-        <v>24.80004036159277</v>
+        <v>337.9318631089762</v>
       </c>
       <c r="G29" t="n">
         <v>24.80004036159277</v>
@@ -6461,19 +6461,19 @@
         <v>24.80004036159277</v>
       </c>
       <c r="J29" t="n">
-        <v>34.64114450698276</v>
+        <v>34.64114450698298</v>
       </c>
       <c r="K29" t="n">
-        <v>170.1352128255226</v>
+        <v>170.1352128255228</v>
       </c>
       <c r="L29" t="n">
-        <v>390.5042133219868</v>
+        <v>390.5042133219871</v>
       </c>
       <c r="M29" t="n">
-        <v>652.3137324079038</v>
+        <v>652.3137324079041</v>
       </c>
       <c r="N29" t="n">
-        <v>903.7276056802432</v>
+        <v>903.7276056802434</v>
       </c>
       <c r="O29" t="n">
         <v>1095.94295912257</v>
@@ -6488,25 +6488,25 @@
         <v>1240.002018079638</v>
       </c>
       <c r="S29" t="n">
-        <v>1129.13627993309</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="T29" t="n">
-        <v>904.9273425216783</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="U29" t="n">
+        <v>1240.002018079638</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1240.002018079638</v>
+      </c>
+      <c r="W29" t="n">
+        <v>964.1955086037432</v>
+      </c>
+      <c r="X29" t="n">
         <v>651.0636858563597</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>651.0636858563597</v>
-      </c>
-      <c r="W29" t="n">
-        <v>651.0636858563597</v>
-      </c>
-      <c r="X29" t="n">
-        <v>337.9318631089762</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>337.9318631089762</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>609.697824125836</v>
+        <v>163.391477822509</v>
       </c>
       <c r="C30" t="n">
-        <v>435.244794844709</v>
+        <v>163.391477822509</v>
       </c>
       <c r="D30" t="n">
-        <v>435.244794844709</v>
+        <v>163.391477822509</v>
       </c>
       <c r="E30" t="n">
-        <v>435.244794844709</v>
+        <v>163.391477822509</v>
       </c>
       <c r="F30" t="n">
-        <v>288.7102368715939</v>
+        <v>163.391477822509</v>
       </c>
       <c r="G30" t="n">
-        <v>222.3235079985294</v>
+        <v>24.80004036159277</v>
       </c>
       <c r="H30" t="n">
-        <v>110.3005666172624</v>
+        <v>24.80004036159277</v>
       </c>
       <c r="I30" t="n">
         <v>24.80004036159277</v>
@@ -6543,49 +6543,49 @@
         <v>36.96795488927127</v>
       </c>
       <c r="K30" t="n">
-        <v>184.3857020087951</v>
+        <v>36.96795488927127</v>
       </c>
       <c r="L30" t="n">
-        <v>444.0114517777549</v>
+        <v>296.5937046582311</v>
       </c>
       <c r="M30" t="n">
-        <v>750.0138399704231</v>
+        <v>356.2801073417738</v>
       </c>
       <c r="N30" t="n">
-        <v>750.0138399704231</v>
+        <v>663.1806068164843</v>
       </c>
       <c r="O30" t="n">
-        <v>1031.271232312671</v>
+        <v>944.4379991587322</v>
       </c>
       <c r="P30" t="n">
-        <v>1240.002018079638</v>
+        <v>1153.1687849257</v>
       </c>
       <c r="Q30" t="n">
         <v>1240.002018079638</v>
       </c>
       <c r="R30" t="n">
-        <v>1240.002018079638</v>
+        <v>1207.062572016661</v>
       </c>
       <c r="S30" t="n">
-        <v>1240.002018079638</v>
+        <v>1036.234297623659</v>
       </c>
       <c r="T30" t="n">
-        <v>1240.002018079638</v>
+        <v>834.6095342631016</v>
       </c>
       <c r="U30" t="n">
-        <v>1240.002018079638</v>
+        <v>606.3950862597846</v>
       </c>
       <c r="V30" t="n">
-        <v>1240.002018079638</v>
+        <v>371.2429780280419</v>
       </c>
       <c r="W30" t="n">
-        <v>985.7646613514369</v>
+        <v>371.2429780280419</v>
       </c>
       <c r="X30" t="n">
-        <v>777.913161145904</v>
+        <v>163.391477822509</v>
       </c>
       <c r="Y30" t="n">
-        <v>777.913161145904</v>
+        <v>163.391477822509</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6658,10 @@
         <v>65.35716431088224</v>
       </c>
       <c r="W31" t="n">
-        <v>24.80004036159277</v>
+        <v>65.35716431088224</v>
       </c>
       <c r="X31" t="n">
-        <v>24.80004036159277</v>
+        <v>65.35716431088224</v>
       </c>
       <c r="Y31" t="n">
         <v>24.80004036159277</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>368.5280990203927</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="C33" t="n">
-        <v>368.5280990203927</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="D33" t="n">
-        <v>222.3235079985294</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="E33" t="n">
-        <v>222.3235079985294</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="F33" t="n">
-        <v>222.3235079985294</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="G33" t="n">
-        <v>222.3235079985294</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="H33" t="n">
-        <v>110.3005666172624</v>
+        <v>24.80004036159276</v>
       </c>
       <c r="I33" t="n">
         <v>24.80004036159276</v>
@@ -6780,49 +6780,49 @@
         <v>24.80004036159276</v>
       </c>
       <c r="K33" t="n">
-        <v>24.80004036159276</v>
+        <v>172.2177874811165</v>
       </c>
       <c r="L33" t="n">
-        <v>49.37960786706321</v>
+        <v>172.2177874811165</v>
       </c>
       <c r="M33" t="n">
-        <v>356.2801073417737</v>
+        <v>443.1133404957124</v>
       </c>
       <c r="N33" t="n">
-        <v>663.1806068164841</v>
+        <v>750.0138399704229</v>
       </c>
       <c r="O33" t="n">
-        <v>944.4379991587319</v>
+        <v>1031.271232312671</v>
       </c>
       <c r="P33" t="n">
-        <v>1153.168784925699</v>
+        <v>1240.002018079638</v>
       </c>
       <c r="Q33" t="n">
         <v>1240.002018079638</v>
       </c>
       <c r="R33" t="n">
-        <v>1240.002018079638</v>
+        <v>1147.48676894728</v>
       </c>
       <c r="S33" t="n">
-        <v>1240.002018079638</v>
+        <v>976.6584945542776</v>
       </c>
       <c r="T33" t="n">
-        <v>1038.377254719081</v>
+        <v>775.0337311937204</v>
       </c>
       <c r="U33" t="n">
-        <v>1038.377254719081</v>
+        <v>546.8192831904034</v>
       </c>
       <c r="V33" t="n">
-        <v>1038.377254719081</v>
+        <v>311.6671749586607</v>
       </c>
       <c r="W33" t="n">
-        <v>784.1398979908795</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="X33" t="n">
-        <v>576.2883977853467</v>
+        <v>57.42981823045909</v>
       </c>
       <c r="Y33" t="n">
-        <v>368.5280990203927</v>
+        <v>57.42981823045909</v>
       </c>
     </row>
     <row r="34">
@@ -6877,10 +6877,10 @@
         <v>239.1870292974597</v>
       </c>
       <c r="Q34" t="n">
-        <v>161.9399414609009</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="R34" t="n">
-        <v>24.80004036159276</v>
+        <v>239.1870292974597</v>
       </c>
       <c r="S34" t="n">
         <v>24.80004036159276</v>
@@ -6938,13 +6938,13 @@
         <v>34.21180278205784</v>
       </c>
       <c r="K35" t="n">
-        <v>148.6681265792769</v>
+        <v>169.7058711005977</v>
       </c>
       <c r="L35" t="n">
-        <v>369.0371270757411</v>
+        <v>390.0748715970619</v>
       </c>
       <c r="M35" t="n">
-        <v>630.8466461616581</v>
+        <v>651.8843906829788</v>
       </c>
       <c r="N35" t="n">
         <v>882.2605194339974</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6450556554695</v>
+        <v>435.7163777639826</v>
       </c>
       <c r="C36" t="n">
-        <v>815.1920263743425</v>
+        <v>435.7163777639826</v>
       </c>
       <c r="D36" t="n">
-        <v>666.2576167130912</v>
+        <v>435.7163777639826</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0201617076358</v>
+        <v>435.7163777639826</v>
       </c>
       <c r="F36" t="n">
-        <v>360.4856037345207</v>
+        <v>289.1818197908675</v>
       </c>
       <c r="G36" t="n">
         <v>221.8941662736045</v>
@@ -7014,22 +7014,22 @@
         <v>24.37069863666785</v>
       </c>
       <c r="J36" t="n">
-        <v>24.37069863666785</v>
+        <v>36.53861316434635</v>
       </c>
       <c r="K36" t="n">
-        <v>74.47699846465548</v>
+        <v>183.9563602838701</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1027482336153</v>
+        <v>443.58211005283</v>
       </c>
       <c r="M36" t="n">
-        <v>635.69014386238</v>
+        <v>708.2167504376604</v>
       </c>
       <c r="N36" t="n">
-        <v>937.2775394911446</v>
+        <v>1009.804146066425</v>
       </c>
       <c r="O36" t="n">
-        <v>1218.534931833392</v>
+        <v>1009.804146066425</v>
       </c>
       <c r="P36" t="n">
         <v>1218.534931833392</v>
@@ -7047,19 +7047,19 @@
         <v>1126.019682701034</v>
       </c>
       <c r="U36" t="n">
-        <v>1126.019682701034</v>
+        <v>897.8052346977171</v>
       </c>
       <c r="V36" t="n">
-        <v>1126.019682701034</v>
+        <v>897.8052346977171</v>
       </c>
       <c r="W36" t="n">
-        <v>1126.019682701034</v>
+        <v>643.5678779695154</v>
       </c>
       <c r="X36" t="n">
-        <v>1126.019682701034</v>
+        <v>435.7163777639826</v>
       </c>
       <c r="Y36" t="n">
-        <v>1126.019682701034</v>
+        <v>435.7163777639826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="C37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="D37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="E37" t="n">
-        <v>238.7576875725348</v>
+        <v>1151.037890395436</v>
       </c>
       <c r="F37" t="n">
-        <v>238.7576875725348</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="G37" t="n">
-        <v>69.18668781505571</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="H37" t="n">
-        <v>69.18668781505571</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="I37" t="n">
-        <v>24.37069863666785</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="J37" t="n">
-        <v>24.37069863666785</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="K37" t="n">
-        <v>24.37069863666785</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="L37" t="n">
-        <v>68.71271289721744</v>
+        <v>1048.489957158075</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8542728203105</v>
+        <v>1105.631517081168</v>
       </c>
       <c r="N37" t="n">
-        <v>187.0717505879517</v>
+        <v>1166.84899484881</v>
       </c>
       <c r="O37" t="n">
-        <v>227.5997041277735</v>
+        <v>1207.376948388631</v>
       </c>
       <c r="P37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="R37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="S37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="T37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="U37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="V37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="W37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="X37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="Y37" t="n">
-        <v>238.7576875725348</v>
+        <v>1218.534931833392</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
       <c r="C38" t="n">
-        <v>92.53824936305023</v>
+        <v>227.5566046180293</v>
       </c>
       <c r="D38" t="n">
-        <v>92.53824936305023</v>
+        <v>24.37069863666785</v>
       </c>
       <c r="E38" t="n">
         <v>24.37069863666785</v>
@@ -7172,52 +7172,52 @@
         <v>24.37069863666785</v>
       </c>
       <c r="J38" t="n">
-        <v>24.37069863666785</v>
+        <v>34.21180278205784</v>
       </c>
       <c r="K38" t="n">
-        <v>159.8647669552077</v>
+        <v>169.7058711005977</v>
       </c>
       <c r="L38" t="n">
-        <v>380.233767451672</v>
+        <v>386.7192118366901</v>
       </c>
       <c r="M38" t="n">
-        <v>642.043286537589</v>
+        <v>648.5287309226071</v>
       </c>
       <c r="N38" t="n">
-        <v>893.4571598099283</v>
+        <v>899.9426041949464</v>
       </c>
       <c r="O38" t="n">
-        <v>1085.672513252255</v>
+        <v>1092.157957637273</v>
       </c>
       <c r="P38" t="n">
-        <v>1212.049487448374</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="Q38" t="n">
         <v>1218.534931833392</v>
       </c>
       <c r="R38" t="n">
-        <v>1083.516576578413</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="S38" t="n">
-        <v>878.3216848118489</v>
+        <v>1013.340040066828</v>
       </c>
       <c r="T38" t="n">
-        <v>654.1127474004376</v>
+        <v>789.1311026554166</v>
       </c>
       <c r="U38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
       <c r="V38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
       <c r="W38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
       <c r="X38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
       <c r="Y38" t="n">
-        <v>400.249090735119</v>
+        <v>535.2674459900981</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>904.1445293997998</v>
+        <v>729.1454668734482</v>
       </c>
       <c r="C39" t="n">
-        <v>729.6915001186728</v>
+        <v>617.6685587374059</v>
       </c>
       <c r="D39" t="n">
-        <v>580.7570904574216</v>
+        <v>468.7341490761547</v>
       </c>
       <c r="E39" t="n">
-        <v>421.5196354519661</v>
+        <v>309.4966940706992</v>
       </c>
       <c r="F39" t="n">
-        <v>274.9850774788511</v>
+        <v>162.9621360975841</v>
       </c>
       <c r="G39" t="n">
-        <v>136.3936400179348</v>
+        <v>24.37069863666785</v>
       </c>
       <c r="H39" t="n">
         <v>24.37069863666785</v>
@@ -7257,46 +7257,46 @@
         <v>36.53861316434635</v>
       </c>
       <c r="L39" t="n">
-        <v>38.53872931270905</v>
+        <v>125.3719624666479</v>
       </c>
       <c r="M39" t="n">
-        <v>340.1261249414737</v>
+        <v>426.9593580954125</v>
       </c>
       <c r="N39" t="n">
-        <v>641.7135205702383</v>
+        <v>728.5467537241772</v>
       </c>
       <c r="O39" t="n">
-        <v>922.9709129124861</v>
+        <v>1009.804146066425</v>
       </c>
       <c r="P39" t="n">
-        <v>1131.701698679454</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="Q39" t="n">
         <v>1218.534931833392</v>
       </c>
       <c r="R39" t="n">
-        <v>1126.019682701034</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="S39" t="n">
-        <v>1126.019682701034</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="T39" t="n">
-        <v>1126.019682701034</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="U39" t="n">
-        <v>1126.019682701034</v>
+        <v>1218.534931833392</v>
       </c>
       <c r="V39" t="n">
-        <v>1126.019682701034</v>
+        <v>983.3828236016498</v>
       </c>
       <c r="W39" t="n">
-        <v>1126.019682701034</v>
+        <v>729.1454668734482</v>
       </c>
       <c r="X39" t="n">
-        <v>1126.019682701034</v>
+        <v>729.1454668734482</v>
       </c>
       <c r="Y39" t="n">
-        <v>918.2593839360802</v>
+        <v>729.1454668734482</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="C40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="D40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="E40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="F40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="G40" t="n">
-        <v>1048.963932075913</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="H40" t="n">
         <v>1004.147942897526</v>
@@ -7354,28 +7354,28 @@
         <v>1218.534931833392</v>
       </c>
       <c r="R40" t="n">
-        <v>1218.534931833392</v>
+        <v>1044.705066846815</v>
       </c>
       <c r="S40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="T40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="V40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="W40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="X40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
       <c r="Y40" t="n">
-        <v>1218.534931833392</v>
+        <v>1004.147942897526</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1169.187363080831</v>
+        <v>873.9380289695098</v>
       </c>
       <c r="C41" t="n">
-        <v>1169.187363080831</v>
+        <v>873.9380289695098</v>
       </c>
       <c r="D41" t="n">
-        <v>909.1317495955793</v>
+        <v>873.9380289695098</v>
       </c>
       <c r="E41" t="n">
         <v>613.8824154842584</v>
@@ -7415,13 +7415,13 @@
         <v>168.7189197255465</v>
       </c>
       <c r="L41" t="n">
-        <v>389.0879202220107</v>
+        <v>337.3716430841284</v>
       </c>
       <c r="M41" t="n">
-        <v>650.8974393079277</v>
+        <v>599.1811621700454</v>
       </c>
       <c r="N41" t="n">
-        <v>902.311312580267</v>
+        <v>850.5950354423846</v>
       </c>
       <c r="O41" t="n">
         <v>1042.810388884711</v>
@@ -7448,13 +7448,13 @@
         <v>1169.187363080831</v>
       </c>
       <c r="W41" t="n">
-        <v>1169.187363080831</v>
+        <v>873.9380289695098</v>
       </c>
       <c r="X41" t="n">
-        <v>1169.187363080831</v>
+        <v>873.9380289695098</v>
       </c>
       <c r="Y41" t="n">
-        <v>1169.187363080831</v>
+        <v>873.9380289695098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.38374726161661</v>
+        <v>197.8367765427436</v>
       </c>
       <c r="C42" t="n">
         <v>23.38374726161661</v>
@@ -7491,22 +7491,22 @@
         <v>35.55166178929511</v>
       </c>
       <c r="K42" t="n">
-        <v>35.55166178929511</v>
+        <v>182.9694089088189</v>
       </c>
       <c r="L42" t="n">
-        <v>295.177411558255</v>
+        <v>222.3489928596327</v>
       </c>
       <c r="M42" t="n">
-        <v>584.5512839207606</v>
+        <v>511.7228652221384</v>
       </c>
       <c r="N42" t="n">
-        <v>873.9251562832662</v>
+        <v>801.096737584644</v>
       </c>
       <c r="O42" t="n">
-        <v>1155.182548625514</v>
+        <v>1082.354129926892</v>
       </c>
       <c r="P42" t="n">
-        <v>1169.187363080831</v>
+        <v>1082.354129926892</v>
       </c>
       <c r="Q42" t="n">
         <v>1169.187363080831</v>
@@ -7515,25 +7515,25 @@
         <v>1169.187363080831</v>
       </c>
       <c r="S42" t="n">
-        <v>998.3590886878284</v>
+        <v>1029.674532416524</v>
       </c>
       <c r="T42" t="n">
-        <v>796.7343253272712</v>
+        <v>828.0497690559671</v>
       </c>
       <c r="U42" t="n">
-        <v>568.5198773239542</v>
+        <v>828.0497690559671</v>
       </c>
       <c r="V42" t="n">
-        <v>568.5198773239542</v>
+        <v>828.0497690559671</v>
       </c>
       <c r="W42" t="n">
-        <v>314.2825205957526</v>
+        <v>573.8124123277655</v>
       </c>
       <c r="X42" t="n">
-        <v>314.2825205957526</v>
+        <v>573.8124123277655</v>
       </c>
       <c r="Y42" t="n">
-        <v>106.5222218307987</v>
+        <v>366.0521135628117</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>131.9507376187038</v>
+        <v>92.68647758675974</v>
       </c>
       <c r="C44" t="n">
-        <v>131.9507376187038</v>
+        <v>92.68647758675974</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9507376187038</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="E44" t="n">
-        <v>131.9507376187038</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="F44" t="n">
-        <v>92.68647758675974</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="G44" t="n">
         <v>48.10852568854902</v>
@@ -7646,16 +7646,16 @@
         <v>3.53057379033829</v>
       </c>
       <c r="J44" t="n">
-        <v>13.37167793572828</v>
+        <v>3.53057379033829</v>
       </c>
       <c r="K44" t="n">
-        <v>13.37167793572828</v>
+        <v>3.53057379033829</v>
       </c>
       <c r="L44" t="n">
-        <v>13.37167793572828</v>
+        <v>3.53057379033829</v>
       </c>
       <c r="M44" t="n">
-        <v>27.77405278965644</v>
+        <v>47.22142444577462</v>
       </c>
       <c r="N44" t="n">
         <v>71.46490344509277</v>
@@ -7670,28 +7670,28 @@
         <v>176.5286895169145</v>
       </c>
       <c r="R44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="S44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="U44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="V44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="W44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="X44" t="n">
-        <v>131.9507376187038</v>
+        <v>176.5286895169145</v>
       </c>
       <c r="Y44" t="n">
-        <v>131.9507376187038</v>
+        <v>137.2644294849705</v>
       </c>
     </row>
     <row r="45">
@@ -7704,19 +7704,19 @@
         <v>48.10852568854902</v>
       </c>
       <c r="C45" t="n">
-        <v>3.53057379033829</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="D45" t="n">
-        <v>3.53057379033829</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="E45" t="n">
-        <v>3.53057379033829</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="F45" t="n">
-        <v>3.53057379033829</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="G45" t="n">
-        <v>3.53057379033829</v>
+        <v>48.10852568854902</v>
       </c>
       <c r="H45" t="n">
         <v>3.53057379033829</v>
@@ -7725,13 +7725,13 @@
         <v>3.53057379033829</v>
       </c>
       <c r="J45" t="n">
-        <v>15.69848831801679</v>
+        <v>3.53057379033829</v>
       </c>
       <c r="K45" t="n">
-        <v>15.69848831801679</v>
+        <v>3.53057379033829</v>
       </c>
       <c r="L45" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577462</v>
       </c>
       <c r="M45" t="n">
         <v>89.1469882060418</v>
@@ -7770,7 +7770,7 @@
         <v>131.9507376187038</v>
       </c>
       <c r="Y45" t="n">
-        <v>87.37278572049303</v>
+        <v>92.68647758675974</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.9507376187038</v>
+        <v>87.37278572049303</v>
       </c>
       <c r="C46" t="n">
-        <v>131.9507376187038</v>
+        <v>87.37278572049303</v>
       </c>
       <c r="D46" t="n">
-        <v>131.9507376187038</v>
+        <v>87.37278572049303</v>
       </c>
       <c r="E46" t="n">
-        <v>87.37278572049303</v>
+        <v>42.7948338222823</v>
       </c>
       <c r="F46" t="n">
-        <v>48.10852568854902</v>
+        <v>42.7948338222823</v>
       </c>
       <c r="G46" t="n">
         <v>3.53057379033829</v>
@@ -7816,7 +7816,7 @@
         <v>90.91227510121095</v>
       </c>
       <c r="N46" t="n">
-        <v>134.6031257566473</v>
+        <v>124.8427525323314</v>
       </c>
       <c r="O46" t="n">
         <v>165.3707060721532</v>
@@ -7843,13 +7843,13 @@
         <v>176.5286895169145</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5286895169145</v>
+        <v>131.9507376187038</v>
       </c>
       <c r="X46" t="n">
-        <v>176.5286895169145</v>
+        <v>87.37278572049303</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.9507376187038</v>
+        <v>87.37278572049303</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1139464652501</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>275.3651681344982</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
         <v>180.9034340831744</v>
@@ -8313,7 +8313,7 @@
         <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
         <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>275.3651681344982</v>
@@ -8535,19 +8535,19 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>159.1561059343061</v>
       </c>
       <c r="K11" t="n">
         <v>236.7816612407024</v>
@@ -8696,7 +8696,7 @@
         <v>244.565208494812</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0594738100881</v>
+        <v>214.6977687422108</v>
       </c>
       <c r="N11" t="n">
         <v>183.3935170661869</v>
@@ -8705,7 +8705,7 @@
         <v>236.1422025345188</v>
       </c>
       <c r="P11" t="n">
-        <v>213.8429845768281</v>
+        <v>194.145198882473</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.0573656811224</v>
+        <v>115.5584217403323</v>
       </c>
       <c r="L12" t="n">
-        <v>143.800277068219</v>
+        <v>108.5921132136007</v>
       </c>
       <c r="M12" t="n">
-        <v>107.1694820679911</v>
+        <v>156.6684260087812</v>
       </c>
       <c r="N12" t="n">
-        <v>95.45175258200113</v>
+        <v>144.9506965227912</v>
       </c>
       <c r="O12" t="n">
-        <v>109.7639431734489</v>
+        <v>144.9721070280671</v>
       </c>
       <c r="P12" t="n">
-        <v>157.1225350383359</v>
+        <v>107.6235910975458</v>
       </c>
       <c r="Q12" t="n">
         <v>171.865895157509</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>159.1561059343061</v>
       </c>
       <c r="K14" t="n">
         <v>236.7816612407024</v>
@@ -8933,13 +8933,13 @@
         <v>244.565208494812</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0594738100881</v>
+        <v>214.6977687422108</v>
       </c>
       <c r="N14" t="n">
         <v>183.3935170661869</v>
       </c>
       <c r="O14" t="n">
-        <v>206.3410442880838</v>
+        <v>186.6432585937287</v>
       </c>
       <c r="P14" t="n">
         <v>243.6441428232631</v>
@@ -9006,22 +9006,22 @@
         <v>113.800212585178</v>
       </c>
       <c r="K15" t="n">
-        <v>163.0574083501814</v>
+        <v>115.5584217403323</v>
       </c>
       <c r="L15" t="n">
-        <v>158.0910571543908</v>
+        <v>108.5921132136007</v>
       </c>
       <c r="M15" t="n">
-        <v>107.1694820679911</v>
+        <v>156.6684260087812</v>
       </c>
       <c r="N15" t="n">
         <v>95.45175258200113</v>
       </c>
       <c r="O15" t="n">
-        <v>109.7639431734489</v>
+        <v>159.2628871142389</v>
       </c>
       <c r="P15" t="n">
-        <v>157.1225350383359</v>
+        <v>155.1225777073949</v>
       </c>
       <c r="Q15" t="n">
         <v>171.865895157509</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>249.1185534288429</v>
+        <v>187.2827172999123</v>
       </c>
       <c r="L17" t="n">
-        <v>195.0662645540219</v>
+        <v>256.9021006829524</v>
       </c>
       <c r="M17" t="n">
-        <v>185.0594738100881</v>
+        <v>246.8953099390186</v>
       </c>
       <c r="N17" t="n">
         <v>245.2293531951174</v>
       </c>
       <c r="O17" t="n">
-        <v>248.4790947226593</v>
+        <v>236.0401678635206</v>
       </c>
       <c r="P17" t="n">
-        <v>225.6814164745386</v>
+        <v>194.145198882473</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>194.4542989821784</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,13 +9246,13 @@
         <v>115.5584217403323</v>
       </c>
       <c r="L18" t="n">
-        <v>108.5921132136007</v>
+        <v>170.4279493425312</v>
       </c>
       <c r="M18" t="n">
-        <v>166.5069005755507</v>
+        <v>169.0053181969216</v>
       </c>
       <c r="N18" t="n">
-        <v>157.2875887109316</v>
+        <v>154.7891710895607</v>
       </c>
       <c r="O18" t="n">
         <v>109.7639431734489</v>
@@ -9261,7 +9261,7 @@
         <v>169.4594272264763</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.2027873456495</v>
+        <v>122.366951216719</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599046</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>108.5921132136007</v>
+        <v>183.0614986936367</v>
       </c>
       <c r="M21" t="n">
         <v>417.1699865879007</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>269.8033130967118</v>
+        <v>107.6235910975458</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.366951216719</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>113.800212585178</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>249.9467482380063</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>417.1699865879007</v>
       </c>
       <c r="N24" t="n">
-        <v>390.9337683273383</v>
+        <v>405.4522571019107</v>
       </c>
       <c r="O24" t="n">
         <v>109.7639431734489</v>
@@ -9963,10 +9963,10 @@
         <v>417.1699865879007</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3837470112185</v>
+        <v>405.4522571019107</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>293.7938091860373</v>
       </c>
       <c r="P27" t="n">
         <v>107.6235910975458</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>115.5584217403323</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>416.2628034747266</v>
+        <v>167.4587777079333</v>
       </c>
       <c r="N30" t="n">
-        <v>95.45175258200113</v>
+        <v>405.4522571019108</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.366951216719</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>113.800212585178</v>
       </c>
       <c r="K33" t="n">
-        <v>115.5584217403323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>133.4199591787224</v>
+        <v>108.5921132136007</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1699865879007</v>
+        <v>380.8013537999061</v>
       </c>
       <c r="N33" t="n">
         <v>405.4522571019107</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>122.366951216719</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>302.8951655799316</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>416.0966774207511</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>113.800212585178</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>166.1708458090067</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>411.8032150263392</v>
+        <v>374.4771996284259</v>
       </c>
       <c r="N36" t="n">
         <v>400.0854855403492</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>109.7639431734489</v>
       </c>
       <c r="P36" t="n">
-        <v>107.6235910975458</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>122.366951216719</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>159.1561059343061</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>414.2716592369436</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.0052529064391</v>
+        <v>194.4542989821784</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>115.5584217403323</v>
       </c>
       <c r="L39" t="n">
-        <v>110.6124325553812</v>
+        <v>198.3227690745114</v>
       </c>
       <c r="M39" t="n">
         <v>411.8032150263392</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>122.366951216719</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>365.4225507748117</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>328.5615174871066</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>115.5584217403323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>148.3694707396753</v>
       </c>
       <c r="M42" t="n">
         <v>399.4663228381988</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>121.7698683251383</v>
+        <v>107.6235910975458</v>
       </c>
       <c r="Q42" t="n">
-        <v>122.366951216719</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>159.1561059343061</v>
       </c>
       <c r="K44" t="n">
         <v>187.2827172999123</v>
@@ -11303,10 +11303,10 @@
         <v>195.0662645540219</v>
       </c>
       <c r="M44" t="n">
-        <v>199.6073271978943</v>
+        <v>229.1916461893167</v>
       </c>
       <c r="N44" t="n">
-        <v>227.5256894454155</v>
+        <v>207.8818796917608</v>
       </c>
       <c r="O44" t="n">
         <v>230.7754309729574</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>113.800212585178</v>
       </c>
       <c r="K45" t="n">
         <v>115.5584217403323</v>
       </c>
       <c r="L45" t="n">
-        <v>138.6503447616701</v>
+        <v>152.7242855928293</v>
       </c>
       <c r="M45" t="n">
-        <v>151.3016544472197</v>
+        <v>149.5185363712913</v>
       </c>
       <c r="N45" t="n">
         <v>139.5839249612298</v>
@@ -11464,10 +11464,10 @@
         <v>164.9230858916106</v>
       </c>
       <c r="N46" t="n">
-        <v>154.1140530947599</v>
+        <v>144.2550902419155</v>
       </c>
       <c r="O46" t="n">
-        <v>153.1827035130381</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>180.1391513691656</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,10 +22638,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,25 +22671,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424271</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.0587526406372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
         <v>342.105766276825</v>
@@ -22914,10 +22914,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>73.42748985075127</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>300.6031846841426</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>342.105766276825</v>
@@ -23103,22 +23103,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>109.3200394592721</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
         <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>118.095000128211</v>
@@ -23203,7 +23203,7 @@
         <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>357.3771018009214</v>
       </c>
       <c r="G11" t="n">
-        <v>371.4461575774477</v>
+        <v>365.5458834597055</v>
       </c>
       <c r="H11" t="n">
         <v>287.3345362134258</v>
       </c>
       <c r="I11" t="n">
-        <v>200.5328098757684</v>
+        <v>156.9341400527206</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>320.232156737679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.7389947152635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23340,7 @@
         <v>123.2095550475257</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.8463957415909</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.60685326325921</v>
+        <v>137.2055230863071</v>
       </c>
       <c r="H12" t="n">
-        <v>61.4037680266642</v>
+        <v>110.9027119674543</v>
       </c>
       <c r="I12" t="n">
-        <v>35.14657705232288</v>
+        <v>84.64552099311295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2740412626874</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>156.1837518365143</v>
       </c>
     </row>
     <row r="13">
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3763458191142</v>
+        <v>167.8752897599043</v>
       </c>
       <c r="H13" t="n">
-        <v>111.6996428631381</v>
+        <v>161.1985868039281</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4724292408487</v>
+        <v>151.9713731816387</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58125567582463</v>
+        <v>85.17992549887252</v>
       </c>
       <c r="K13" t="n">
         <v>8.828463921101152</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.47461695819327</v>
+        <v>26.97567301740321</v>
       </c>
       <c r="R13" t="n">
-        <v>172.0915663367117</v>
+        <v>122.5926223959217</v>
       </c>
       <c r="S13" t="n">
-        <v>222.000443851255</v>
+        <v>172.5014999104649</v>
       </c>
       <c r="T13" t="n">
-        <v>227.451279325367</v>
+        <v>183.8526095023191</v>
       </c>
       <c r="U13" t="n">
         <v>286.3127190147516</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>123.2095550475257</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>97.94612162384868</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23589,10 +23589,10 @@
         <v>87.70657914551703</v>
       </c>
       <c r="H15" t="n">
-        <v>110.9027119674543</v>
+        <v>61.4037680266642</v>
       </c>
       <c r="I15" t="n">
-        <v>84.64552099311295</v>
+        <v>35.14657705232289</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>118.3763458191142</v>
+        <v>167.8752897599043</v>
       </c>
       <c r="H16" t="n">
-        <v>111.6996428631381</v>
+        <v>161.1985868039281</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4724292408487</v>
+        <v>117.201167279692</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58125567582463</v>
+        <v>35.68098155808246</v>
       </c>
       <c r="K16" t="n">
-        <v>8.828463921101152</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.47461695819327</v>
+        <v>26.9756730174032</v>
       </c>
       <c r="R16" t="n">
-        <v>172.0915663367117</v>
+        <v>122.5926223959216</v>
       </c>
       <c r="S16" t="n">
         <v>222.000443851255</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>71.83233557349868</v>
+        <v>133.6681717024292</v>
       </c>
       <c r="S17" t="n">
-        <v>141.3071067199683</v>
+        <v>203.1429428488988</v>
       </c>
       <c r="T17" t="n">
-        <v>160.1310119083666</v>
+        <v>167.5018435749352</v>
       </c>
       <c r="U17" t="n">
-        <v>196.8600156363033</v>
+        <v>189.4891839697348</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>265.9164223412044</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>287.4051325884825</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,16 +23814,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>85.60922943570824</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>90.6042079310219</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>75.36968695737659</v>
+        <v>82.74051862394512</v>
       </c>
       <c r="H18" t="n">
         <v>49.06687583852376</v>
@@ -23935,10 +23935,10 @@
         <v>76.47461695819327</v>
       </c>
       <c r="R19" t="n">
-        <v>145.3559556769949</v>
+        <v>110.2557302077812</v>
       </c>
       <c r="S19" t="n">
-        <v>222.000443851255</v>
+        <v>160.1646077223245</v>
       </c>
       <c r="T19" t="n">
         <v>165.6154431964365</v>
@@ -23947,16 +23947,16 @@
         <v>286.3127190147516</v>
       </c>
       <c r="V19" t="n">
-        <v>190.3018071948975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>224.6871622076605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>191.849042692378</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>72.73333714357102</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>108.4452072709653</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>398.96299484017</v>
+        <v>415.0448274004956</v>
       </c>
       <c r="H20" t="n">
-        <v>26.83297563430631</v>
+        <v>336.8334801542159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>200.5328098757684</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>133.6681717024292</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.9668480372972</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3250200986653</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>76.23743413614403</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4.520871788379509</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>93.42713180245812</v>
+        <v>137.2055230863071</v>
       </c>
       <c r="H21" t="n">
         <v>110.9027119674543</v>
@@ -24102,16 +24102,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>72.73333714357102</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>71.92986555235223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>96.87554122180188</v>
       </c>
       <c r="G23" t="n">
-        <v>415.0448274004956</v>
+        <v>105.044322880586</v>
       </c>
       <c r="H23" t="n">
         <v>336.8334801542159</v>
@@ -24257,19 +24257,19 @@
         <v>203.1429428488988</v>
       </c>
       <c r="T23" t="n">
-        <v>200.2434237548263</v>
+        <v>221.9668480372972</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3250200986653</v>
       </c>
       <c r="V23" t="n">
-        <v>17.75175395022535</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>39.24046419750346</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>96.68265629733287</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,19 +24291,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>98.64192830802767</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2055230863071</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>84.64552099311295</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>91.59009664103488</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>169.1199916490723</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>137.5321903680462</v>
       </c>
     </row>
     <row r="25">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>134.8356822340571</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>6.341534305586521</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>44.68253710077335</v>
+        <v>215.3027689419759</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>71.92986555235217</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>96.87554122180183</v>
       </c>
       <c r="G26" t="n">
         <v>415.0448274004956</v>
@@ -24461,7 +24461,7 @@
         <v>336.8334801542159</v>
       </c>
       <c r="I26" t="n">
-        <v>117.5863391421035</v>
+        <v>200.5328098757684</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>203.1429428488988</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.9668480372972</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3250200986653</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>76.23743413614397</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>48.99975815123551</v>
       </c>
       <c r="G27" t="n">
-        <v>137.2055230863071</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.9027119674543</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>84.64552099311295</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>91.59009664103488</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.6085157269516</v>
       </c>
       <c r="U27" t="n">
-        <v>160.5069750466888</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>106.9750752337584</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>161.1985868039281</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>151.9713731816387</v>
       </c>
       <c r="J28" t="n">
         <v>85.17992549887252</v>
@@ -24652,7 +24652,7 @@
         <v>222.000443851255</v>
       </c>
       <c r="T28" t="n">
-        <v>227.451279325367</v>
+        <v>15.20816027885883</v>
       </c>
       <c r="U28" t="n">
         <v>286.3127190147516</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.73333714357096</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>44.68253710077335</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.0448274004956</v>
+        <v>105.044322880586</v>
       </c>
       <c r="H29" t="n">
         <v>336.8334801542159</v>
@@ -24728,19 +24728,19 @@
         <v>133.6681717024292</v>
       </c>
       <c r="S29" t="n">
-        <v>93.38586208381543</v>
+        <v>203.1429428488988</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.9668480372972</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3250200986653</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>76.19252433627673</v>
       </c>
       <c r="X29" t="n">
         <v>59.73059615855942</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24768,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>71.48266150197321</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.9027119674543</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>84.64552099311295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>91.59009664103488</v>
+        <v>58.98004503868751</v>
       </c>
       <c r="S30" t="n">
-        <v>169.1199916490723</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.6085157269516</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>246.3714456267944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>178.4331006422982</v>
       </c>
     </row>
     <row r="32">
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>2.702520452994008</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2055230863071</v>
+        <v>104.9020429961294</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.9027119674543</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>84.64552099311295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>91.59009664103488</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>169.1199916490723</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>76.47461695819327</v>
       </c>
       <c r="R34" t="n">
-        <v>36.32306424839672</v>
+        <v>172.0915663367117</v>
       </c>
       <c r="S34" t="n">
-        <v>222.000443851255</v>
+        <v>9.75732480474673</v>
       </c>
       <c r="T34" t="n">
         <v>227.451279325367</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.52230287475842</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>70.59074610421669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25287,16 +25287,16 @@
         <v>199.6085157269516</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9323035232838</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>79.6118916229924</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.8752897599043</v>
       </c>
       <c r="H37" t="n">
         <v>161.1985868039281</v>
       </c>
       <c r="I37" t="n">
-        <v>107.6035438950348</v>
+        <v>151.9713731816387</v>
       </c>
       <c r="J37" t="n">
         <v>85.17992549887252</v>
@@ -25394,10 +25394,10 @@
         <v>60.63915881265945</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>153.5289946991352</v>
       </c>
       <c r="E38" t="n">
-        <v>314.4444948531432</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>133.6681717024292</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>152.5594776589497</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>62.34635993363386</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.9027119674543</v>
       </c>
       <c r="I39" t="n">
         <v>84.64552099311295</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>91.59009664103488</v>
       </c>
       <c r="S39" t="n">
         <v>169.1199916490723</v>
@@ -25527,16 +25527,16 @@
         <v>225.9323035232838</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8752897599043</v>
       </c>
       <c r="H40" t="n">
-        <v>116.8307575173245</v>
+        <v>161.1985868039281</v>
       </c>
       <c r="I40" t="n">
         <v>151.9713731816387</v>
@@ -25594,10 +25594,10 @@
         <v>76.47461695819327</v>
       </c>
       <c r="R40" t="n">
-        <v>172.0915663367117</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>222.000443851255</v>
+        <v>181.8488911414587</v>
       </c>
       <c r="T40" t="n">
         <v>227.451279325367</v>
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>97.22798427028414</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>89.63352930205411</v>
+        <v>124.475312721863</v>
       </c>
       <c r="F41" t="n">
         <v>114.5792049715038</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>56.94412794720535</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84.22609382637708</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,13 +25755,13 @@
         <v>91.59009664103488</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>31.00228929140894</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9323035232838</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414543</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>368.0044283100868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>370.912655021267</v>
+        <v>415.0448274004956</v>
       </c>
       <c r="H44" t="n">
         <v>292.7013077749872</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.5359993232006</v>
+        <v>133.6681717024292</v>
       </c>
       <c r="S44" t="n">
         <v>203.1429428488988</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6615662182428</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C45" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25959,7 @@
         <v>137.2055230863071</v>
       </c>
       <c r="H45" t="n">
-        <v>110.9027119674543</v>
+        <v>66.77053958822565</v>
       </c>
       <c r="I45" t="n">
         <v>84.64552099311295</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>161.5505233980757</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="46">
@@ -26032,10 +26032,10 @@
         <v>102.3017902673406</v>
       </c>
       <c r="F46" t="n">
-        <v>106.5494305913067</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7431173806757</v>
+        <v>129.0036723282797</v>
       </c>
       <c r="H46" t="n">
         <v>161.1985868039281</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098085</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352766.9668499533</v>
+        <v>352766.9668499532</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352766.9668499531</v>
+        <v>352766.9668499532</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361374.4141163127</v>
+        <v>361374.4141163126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361374.4141163126</v>
+        <v>361374.4141163127</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544448.8524552368</v>
+        <v>544448.8524552369</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544448.8524552368</v>
+        <v>544448.8524552369</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540691.9392637037</v>
+        <v>540691.9392637035</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540691.9392637035</v>
+        <v>540691.9392637034</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>532055.7168211243</v>
+        <v>532055.7168211244</v>
       </c>
     </row>
     <row r="16">
@@ -26347,7 +26347,7 @@
         <v>166887.7588337569</v>
       </c>
       <c r="N2" t="n">
-        <v>166887.758833757</v>
+        <v>166887.7588337569</v>
       </c>
       <c r="O2" t="n">
         <v>164259.3109186718</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3381.357095386468</v>
+        <v>3381.35709538648</v>
       </c>
       <c r="H3" t="n">
         <v>66957.06101390168</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>11546.91810999091</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42164.3306515635</v>
+        <v>41966.02345970034</v>
       </c>
       <c r="C4" t="n">
-        <v>42164.3306515635</v>
+        <v>41966.02345970033</v>
       </c>
       <c r="D4" t="n">
-        <v>42164.3306515635</v>
+        <v>41966.02345970034</v>
       </c>
       <c r="E4" t="n">
-        <v>37134.50877578653</v>
+        <v>36959.90702724122</v>
       </c>
       <c r="F4" t="n">
-        <v>37134.50877578653</v>
+        <v>36959.90702724122</v>
       </c>
       <c r="G4" t="n">
-        <v>38278.79574525913</v>
+        <v>38098.85304250604</v>
       </c>
       <c r="H4" t="n">
-        <v>59537.02939673435</v>
+        <v>59257.86398543006</v>
       </c>
       <c r="I4" t="n">
-        <v>59537.02939673436</v>
+        <v>59257.86398543005</v>
       </c>
       <c r="J4" t="n">
-        <v>59537.02939673436</v>
+        <v>59257.86398543006</v>
       </c>
       <c r="K4" t="n">
-        <v>59537.02939673436</v>
+        <v>59257.86398543005</v>
       </c>
       <c r="L4" t="n">
-        <v>59537.02939673436</v>
+        <v>59257.86398543005</v>
       </c>
       <c r="M4" t="n">
-        <v>59077.3020529933</v>
+        <v>58800.28241696782</v>
       </c>
       <c r="N4" t="n">
-        <v>59077.3020529933</v>
+        <v>58800.28241696783</v>
       </c>
       <c r="O4" t="n">
-        <v>58020.50158913613</v>
+        <v>57748.41456445275</v>
       </c>
       <c r="P4" t="n">
-        <v>36584.34326606362</v>
+        <v>36412.30941252413</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14332.83207961403</v>
+        <v>14531.13927147721</v>
       </c>
       <c r="C6" t="n">
-        <v>29122.53808385825</v>
+        <v>29320.84527572144</v>
       </c>
       <c r="D6" t="n">
-        <v>29122.53808385825</v>
+        <v>29320.84527572144</v>
       </c>
       <c r="E6" t="n">
-        <v>17624.72804869751</v>
+        <v>17799.32979724281</v>
       </c>
       <c r="F6" t="n">
-        <v>70769.56072613577</v>
+        <v>70944.16247468104</v>
       </c>
       <c r="G6" t="n">
-        <v>68339.87579925456</v>
+        <v>68519.81850200762</v>
       </c>
       <c r="H6" t="n">
-        <v>21290.47812662755</v>
+        <v>21569.64353793187</v>
       </c>
       <c r="I6" t="n">
-        <v>88247.53914052919</v>
+        <v>88526.70455183351</v>
       </c>
       <c r="J6" t="n">
-        <v>76700.62103053839</v>
+        <v>76979.78644184265</v>
       </c>
       <c r="K6" t="n">
-        <v>88247.53914052916</v>
+        <v>88526.70455183348</v>
       </c>
       <c r="L6" t="n">
-        <v>88247.53914052925</v>
+        <v>88526.70455183354</v>
       </c>
       <c r="M6" t="n">
-        <v>87890.14374273497</v>
+        <v>88167.16337876045</v>
       </c>
       <c r="N6" t="n">
-        <v>87890.14374273503</v>
+        <v>88167.16337876042</v>
       </c>
       <c r="O6" t="n">
-        <v>87068.57933654597</v>
+        <v>87340.66636122932</v>
       </c>
       <c r="P6" t="n">
-        <v>70277.66792990132</v>
+        <v>70449.70178344082</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26796,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="F4" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="G4" t="n">
         <v>61.83583612893051</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.366771561561478</v>
+        <v>5.366771561561464</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.33689218814042</v>
+        <v>12.33689218814047</v>
       </c>
       <c r="H4" t="n">
         <v>248.164668390979</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922862</v>
+        <v>44.13217237922868</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.366771561561478</v>
+        <v>5.366771561561464</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.33689218814042</v>
+        <v>12.33689218814047</v>
       </c>
       <c r="P4" t="n">
         <v>248.164668390979</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>42.34905430330018</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>44.13217237922859</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="L5" t="n">
         <v>42.34905430330018</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>44.13217237922859</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
         <v>42.34905430330018</v>
@@ -35033,7 +35033,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>44.13217237922859</v>
@@ -35255,19 +35255,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="P9" t="n">
-        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.940509237767678</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="L11" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>29.6382949321227</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="P11" t="n">
-        <v>19.69778569435507</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>17.86069167772632</v>
@@ -35489,25 +35489,25 @@
         <v>12.29082275523081</v>
       </c>
       <c r="K12" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.20816385461825</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>35.20816385461822</v>
       </c>
       <c r="P12" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>44.78991339449455</v>
       </c>
       <c r="M13" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="N13" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="O13" t="n">
         <v>40.93732680790086</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.940509237767678</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="L14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>29.63829493212272</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69778569435505</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="Q14" t="n">
         <v>17.86069167772632</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>47.49898660984906</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.49894394079007</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="P15" t="n">
-        <v>49.49894394079007</v>
+        <v>47.49898660984905</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>44.78991339449455</v>
       </c>
       <c r="M16" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="N16" t="n">
-        <v>49.49894394079007</v>
+        <v>49.49894394079006</v>
       </c>
       <c r="O16" t="n">
         <v>40.93732680790086</v>
@@ -35884,25 +35884,25 @@
         <v>9.940509237767678</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>61.83583612893051</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="N17" t="n">
         <v>61.83583612893051</v>
       </c>
       <c r="O17" t="n">
-        <v>61.83583612893051</v>
+        <v>49.39690926979188</v>
       </c>
       <c r="P17" t="n">
-        <v>31.53621759206555</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.86069167772632</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="M18" t="n">
-        <v>59.33741850755956</v>
+        <v>61.83583612893051</v>
       </c>
       <c r="N18" t="n">
-        <v>61.83583612893051</v>
+        <v>59.33741850755957</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>61.83583612893051</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.83583612893051</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>127.6535092890096</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.86069167772632</v>
+        <v>17.86069167772627</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>148.9068152722463</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>74.46938548003597</v>
       </c>
       <c r="M21" t="n">
         <v>310.0005045199096</v>
@@ -36215,10 +36215,10 @@
         <v>284.0983761032807</v>
       </c>
       <c r="P21" t="n">
-        <v>162.179721999166</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>87.71033651913012</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>148.9068152722463</v>
+        <v>134.388326497674</v>
       </c>
       <c r="L24" t="n">
         <v>262.2482320898584</v>
@@ -36446,7 +36446,7 @@
         <v>310.0005045199096</v>
       </c>
       <c r="N24" t="n">
-        <v>295.4820157453372</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>310.0005045199096</v>
       </c>
       <c r="N27" t="n">
-        <v>209.9319944292174</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="O27" t="n">
-        <v>284.0983761032807</v>
+        <v>184.0298660125884</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>12.29082275523081</v>
       </c>
       <c r="K30" t="n">
-        <v>148.9068152722463</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>262.2482320898584</v>
       </c>
       <c r="M30" t="n">
-        <v>309.0933214067355</v>
+        <v>60.28929563994215</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>310.0005045199096</v>
       </c>
       <c r="O30" t="n">
         <v>284.0983761032807</v>
@@ -36929,7 +36929,7 @@
         <v>210.8391775423914</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.71033651913012</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>148.9068152722463</v>
       </c>
       <c r="L33" t="n">
-        <v>24.82784596512167</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>310.0005045199096</v>
+        <v>273.631871731915</v>
       </c>
       <c r="N33" t="n">
         <v>310.0005045199096</v>
@@ -37166,7 +37166,7 @@
         <v>210.8391775423914</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.71033651913012</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>9.940509237767671</v>
       </c>
       <c r="K35" t="n">
-        <v>115.6124482800193</v>
+        <v>136.8626952712524</v>
       </c>
       <c r="L35" t="n">
         <v>222.5949499964285</v>
@@ -37315,7 +37315,7 @@
         <v>264.4540596827444</v>
       </c>
       <c r="N35" t="n">
-        <v>253.9534073457972</v>
+        <v>232.7031603545642</v>
       </c>
       <c r="O35" t="n">
         <v>194.1569226690166</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>12.29082275523081</v>
       </c>
       <c r="K36" t="n">
-        <v>50.61242406867437</v>
+        <v>148.9068152722463</v>
       </c>
       <c r="L36" t="n">
         <v>262.2482320898584</v>
       </c>
       <c r="M36" t="n">
-        <v>304.6337329583481</v>
+        <v>267.3077175604348</v>
       </c>
       <c r="N36" t="n">
         <v>304.6337329583481</v>
       </c>
       <c r="O36" t="n">
-        <v>284.0983761032807</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>210.8391775423914</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.940509237767671</v>
       </c>
       <c r="K38" t="n">
         <v>136.8626952712524</v>
       </c>
       <c r="L38" t="n">
-        <v>222.5949499964285</v>
+        <v>219.2053946829216</v>
       </c>
       <c r="M38" t="n">
         <v>264.4540596827444</v>
@@ -37561,7 +37561,7 @@
         <v>127.6535092890096</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.550953924260734</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.020319341780505</v>
+        <v>89.73065586091067</v>
       </c>
       <c r="M39" t="n">
         <v>304.6337329583481</v>
@@ -37640,7 +37640,7 @@
         <v>210.8391775423914</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.71033651913012</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>136.8626952712524</v>
       </c>
       <c r="L41" t="n">
-        <v>222.5949499964285</v>
+        <v>170.3562862207898</v>
       </c>
       <c r="M41" t="n">
         <v>264.4540596827444</v>
@@ -37792,7 +37792,7 @@
         <v>253.9534073457972</v>
       </c>
       <c r="O41" t="n">
-        <v>141.9182588933779</v>
+        <v>194.1569226690166</v>
       </c>
       <c r="P41" t="n">
         <v>127.6535092890096</v>
@@ -37859,10 +37859,10 @@
         <v>12.29082275523081</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>148.9068152722463</v>
       </c>
       <c r="L42" t="n">
-        <v>262.2482320898584</v>
+        <v>39.77735752607458</v>
       </c>
       <c r="M42" t="n">
         <v>292.2968407702077</v>
@@ -37874,10 +37874,10 @@
         <v>284.0983761032807</v>
       </c>
       <c r="P42" t="n">
-        <v>14.14627722759252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.71033651913012</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.940509237767671</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>14.54785338780622</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922862</v>
+        <v>24.48836262557389</v>
       </c>
       <c r="O44" t="n">
         <v>44.13217237922862</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.29082275523081</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>30.05823154806937</v>
+        <v>44.13217237922862</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922862</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N45" t="n">
         <v>44.13217237922862</v>
@@ -38184,10 +38184,10 @@
         <v>44.13217237922862</v>
       </c>
       <c r="N46" t="n">
-        <v>44.13217237922862</v>
+        <v>34.27320952638425</v>
       </c>
       <c r="O46" t="n">
-        <v>31.0783639550565</v>
+        <v>40.93732680790086</v>
       </c>
       <c r="P46" t="n">
         <v>11.2706903482437</v>
